--- a/Cam5calib.xlsx
+++ b/Cam5calib.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E66C3B-511C-4C59-A208-29F2F1C898B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="18369" yWindow="3257" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,4114 +341,3538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E144"/>
+      <selection sqref="A1:D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>924.45399999999995</v>
+        <v>865.49300000000005</v>
       </c>
       <c r="B1" s="1">
-        <v>1023.586</v>
+        <v>1023.806</v>
       </c>
       <c r="C1" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
-        <v>924.66399999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>949.39099999999996</v>
+        <v>885.3</v>
       </c>
       <c r="B2" s="1">
-        <v>1805.6690000000001</v>
+        <v>1815.415</v>
       </c>
       <c r="C2" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>949.452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-15.92</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>944.03499999999997</v>
+        <v>881.02700000000004</v>
       </c>
       <c r="B3" s="1">
-        <v>1709.7539999999999</v>
+        <v>1717.867</v>
       </c>
       <c r="C3" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.03</v>
-      </c>
-      <c r="E3" s="1">
-        <v>944.39300000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-14.05</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>938.99099999999999</v>
+        <v>876.84199999999998</v>
       </c>
       <c r="B4" s="1">
-        <v>1605.788</v>
+        <v>1615.576</v>
       </c>
       <c r="C4" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>939.38199999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.02</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>934.74199999999996</v>
+        <v>873.49699999999996</v>
       </c>
       <c r="B5" s="1">
-        <v>1502.3430000000001</v>
+        <v>1515.7750000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D5" s="1">
         <v>-10</v>
       </c>
-      <c r="E5" s="1">
-        <v>935.09699999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>931.04</v>
+        <v>870.55</v>
       </c>
       <c r="B6" s="1">
-        <v>1404.8209999999999</v>
+        <v>1417.7550000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>931.50800000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.02</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>928.36900000000003</v>
+        <v>868.49099999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>1307.7719999999999</v>
+        <v>1319.4359999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>928.572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.02</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>926.31600000000003</v>
+        <v>866.84500000000003</v>
       </c>
       <c r="B8" s="1">
-        <v>1210.8630000000001</v>
+        <v>1221.9469999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E8" s="1">
-        <v>926.54399999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.05</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>925.00599999999997</v>
+        <v>865.58799999999997</v>
       </c>
       <c r="B9" s="1">
-        <v>1116.471</v>
+        <v>1123.942</v>
       </c>
       <c r="C9" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E9" s="1">
-        <v>925.66600000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.02</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>924.43499999999995</v>
+        <v>865.49599999999998</v>
       </c>
       <c r="B10" s="1">
-        <v>1022.7670000000001</v>
+        <v>1026.4860000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="1">
-        <v>924.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.05</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>924.38400000000001</v>
+        <v>865.44500000000005</v>
       </c>
       <c r="B11" s="1">
-        <v>928.23500000000001</v>
+        <v>928.74400000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>924.45899999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.98</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>924.97500000000002</v>
+        <v>866.14599999999996</v>
       </c>
       <c r="B12" s="1">
-        <v>833.572</v>
+        <v>831.93799999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>4.05</v>
-      </c>
-      <c r="E12" s="1">
-        <v>925.33600000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.95</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>926.38699999999994</v>
+        <v>867.42899999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>740.05899999999997</v>
+        <v>733.33699999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>6.03</v>
-      </c>
-      <c r="E13" s="1">
-        <v>927.15899999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>928.29399999999998</v>
+        <v>869.24099999999999</v>
       </c>
       <c r="B14" s="1">
-        <v>643.952</v>
+        <v>633.87400000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E14" s="1">
-        <v>928.37400000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.93</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>931.048</v>
+        <v>871.77700000000004</v>
       </c>
       <c r="B15" s="1">
-        <v>548.70500000000004</v>
+        <v>531.69500000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>931.08900000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.93</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>934.572</v>
+        <v>875.18100000000004</v>
       </c>
       <c r="B16" s="1">
-        <v>452.36099999999999</v>
+        <v>429.46300000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="E16" s="1">
-        <v>934.01300000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.93</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>938.23900000000003</v>
+        <v>878.79300000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>354.70400000000001</v>
+        <v>324.94299999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>14.05</v>
-      </c>
-      <c r="E17" s="1">
-        <v>938.98800000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.9</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>943.053</v>
+        <v>883.32600000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>255.422</v>
+        <v>217.14599999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>2402.8000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="E18" s="1">
-        <v>943.24300000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.93</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>904.00099999999998</v>
+        <v>846.48299999999995</v>
       </c>
       <c r="B19" s="1">
-        <v>1023.393</v>
+        <v>1023.657</v>
       </c>
       <c r="C19" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>903.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>928.03099999999995</v>
+        <v>865.48599999999999</v>
       </c>
       <c r="B20" s="1">
-        <v>1804.2739999999999</v>
+        <v>1812.9760000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D20" s="1">
         <v>-15.9</v>
       </c>
-      <c r="E20" s="1">
-        <v>928.80399999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>922.95799999999997</v>
+        <v>861.31100000000004</v>
       </c>
       <c r="B21" s="1">
-        <v>1708.018</v>
+        <v>1716.6279999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D21" s="1">
         <v>-14.05</v>
       </c>
-      <c r="E21" s="1">
-        <v>923.95899999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>918.01800000000003</v>
+        <v>857.46</v>
       </c>
       <c r="B22" s="1">
-        <v>1604.0319999999999</v>
+        <v>1613.8789999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>918.66200000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.03</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>913.88099999999997</v>
+        <v>854.22400000000005</v>
       </c>
       <c r="B23" s="1">
-        <v>1500.7159999999999</v>
+        <v>1513.3779999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D23" s="1">
         <v>-10</v>
       </c>
-      <c r="E23" s="1">
-        <v>914.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>910.46400000000006</v>
+        <v>851.51400000000001</v>
       </c>
       <c r="B24" s="1">
-        <v>1404.0029999999999</v>
+        <v>1416.23</v>
       </c>
       <c r="C24" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D24" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>911.46900000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>907.96500000000003</v>
+        <v>849.46199999999999</v>
       </c>
       <c r="B25" s="1">
-        <v>1306.53</v>
+        <v>1317.277</v>
       </c>
       <c r="C25" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D25" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>908.71699999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.03</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>905.99400000000003</v>
+        <v>847.745</v>
       </c>
       <c r="B26" s="1">
-        <v>1210.482</v>
+        <v>1220.443</v>
       </c>
       <c r="C26" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E26" s="1">
-        <v>906.74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.03</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>904.87400000000002</v>
+        <v>846.64300000000003</v>
       </c>
       <c r="B27" s="1">
-        <v>1116.019</v>
+        <v>1123.088</v>
       </c>
       <c r="C27" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E27" s="1">
-        <v>905.06200000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>904.01199999999994</v>
+        <v>846.48900000000003</v>
       </c>
       <c r="B28" s="1">
-        <v>1022.193</v>
+        <v>1024.828</v>
       </c>
       <c r="C28" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E28" s="1">
-        <v>903.63699999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>903.98099999999999</v>
+        <v>846.50699999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>927.928</v>
+        <v>927.87900000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>903.70899999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.97</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>904.63599999999997</v>
+        <v>847.07</v>
       </c>
       <c r="B30" s="1">
-        <v>834.87199999999996</v>
+        <v>831.42399999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D30" s="1">
-        <v>4.03</v>
-      </c>
-      <c r="E30" s="1">
-        <v>904.42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.95</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>905.976</v>
+        <v>848.12900000000002</v>
       </c>
       <c r="B31" s="1">
-        <v>739.245</v>
+        <v>733.06</v>
       </c>
       <c r="C31" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D31" s="1">
-        <v>6.03</v>
-      </c>
-      <c r="E31" s="1">
-        <v>906.87599999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>907.947</v>
+        <v>850.08600000000001</v>
       </c>
       <c r="B32" s="1">
-        <v>644.24</v>
+        <v>633.05899999999997</v>
       </c>
       <c r="C32" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E32" s="1">
-        <v>908.649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.93</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>910.33</v>
+        <v>852.58299999999997</v>
       </c>
       <c r="B33" s="1">
-        <v>549.34199999999998</v>
+        <v>531.50900000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D33" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="E33" s="1">
-        <v>911.57899999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.93</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>913.79399999999998</v>
+        <v>855.54499999999996</v>
       </c>
       <c r="B34" s="1">
-        <v>453.541</v>
+        <v>428.79599999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D34" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="E34" s="1">
-        <v>914.16800000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.93</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>917.59500000000003</v>
+        <v>859.13599999999997</v>
       </c>
       <c r="B35" s="1">
-        <v>356.18799999999999</v>
+        <v>325.31200000000001</v>
       </c>
       <c r="C35" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D35" s="1">
-        <v>14.03</v>
-      </c>
-      <c r="E35" s="1">
-        <v>917.77599999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.93</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>921.98800000000006</v>
+        <v>863.471</v>
       </c>
       <c r="B36" s="1">
-        <v>255.75299999999999</v>
+        <v>218.34200000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>2502.5</v>
+        <v>2600.5</v>
       </c>
       <c r="D36" s="1">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="E36" s="1">
-        <v>922.29700000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.93</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>885.22199999999998</v>
+        <v>828.57</v>
       </c>
       <c r="B37" s="1">
-        <v>1023.542</v>
+        <v>1023.683</v>
       </c>
       <c r="C37" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="1">
-        <v>885.07100000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>908.62900000000002</v>
+        <v>847.04600000000005</v>
       </c>
       <c r="B38" s="1">
-        <v>1803.0509999999999</v>
+        <v>1811.4590000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D38" s="1">
         <v>-15.9</v>
       </c>
-      <c r="E38" s="1">
-        <v>908.60900000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>903.63800000000003</v>
+        <v>843.125</v>
       </c>
       <c r="B39" s="1">
-        <v>1707.194</v>
+        <v>1715.5840000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D39" s="1">
         <v>-14.05</v>
       </c>
-      <c r="E39" s="1">
-        <v>904.33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>898.84</v>
+        <v>839.51700000000005</v>
       </c>
       <c r="B40" s="1">
-        <v>1603.204</v>
+        <v>1613.087</v>
       </c>
       <c r="C40" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>899.43899999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.03</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>894.81700000000001</v>
+        <v>836.44799999999998</v>
       </c>
       <c r="B41" s="1">
-        <v>1499.8119999999999</v>
+        <v>1512.8620000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D41" s="1">
         <v>-10</v>
       </c>
-      <c r="E41" s="1">
-        <v>895.24599999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>891.46799999999996</v>
+        <v>833.68399999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>1402.0229999999999</v>
+        <v>1415.145</v>
       </c>
       <c r="C42" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D42" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E42" s="1">
-        <v>891.96100000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>889.02599999999995</v>
+        <v>831.58</v>
       </c>
       <c r="B43" s="1">
-        <v>1305.93</v>
+        <v>1317.2190000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D43" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E43" s="1">
-        <v>889.13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.03</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>887.02</v>
+        <v>830.36</v>
       </c>
       <c r="B44" s="1">
-        <v>1210.3579999999999</v>
+        <v>1220.1790000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E44" s="1">
-        <v>887.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.03</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>885.90800000000002</v>
+        <v>829.43</v>
       </c>
       <c r="B45" s="1">
-        <v>1115.598</v>
+        <v>1123.23</v>
       </c>
       <c r="C45" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E45" s="1">
-        <v>886.13900000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>885.12400000000002</v>
+        <v>828.64599999999996</v>
       </c>
       <c r="B46" s="1">
-        <v>1021.889</v>
+        <v>1026.5930000000001</v>
       </c>
       <c r="C46" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E46" s="1">
-        <v>885.10799999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.05</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>885.06600000000003</v>
+        <v>828.82399999999996</v>
       </c>
       <c r="B47" s="1">
-        <v>928.03800000000001</v>
+        <v>928.52599999999995</v>
       </c>
       <c r="C47" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E47" s="1">
-        <v>885.01700000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.97</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>885.90200000000004</v>
+        <v>829.49300000000005</v>
       </c>
       <c r="B48" s="1">
-        <v>833.596</v>
+        <v>831.62800000000004</v>
       </c>
       <c r="C48" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D48" s="1">
-        <v>4.05</v>
-      </c>
-      <c r="E48" s="1">
-        <v>886.23099999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.95</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>887.03899999999999</v>
+        <v>830.87800000000004</v>
       </c>
       <c r="B49" s="1">
-        <v>739.85199999999998</v>
+        <v>733.60799999999995</v>
       </c>
       <c r="C49" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D49" s="1">
-        <v>6.03</v>
-      </c>
-      <c r="E49" s="1">
-        <v>887.66099999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>889.03099999999995</v>
+        <v>832.14599999999996</v>
       </c>
       <c r="B50" s="1">
-        <v>644.46100000000001</v>
+        <v>633.41899999999998</v>
       </c>
       <c r="C50" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E50" s="1">
-        <v>889.61199999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.93</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>891.274</v>
+        <v>834.77099999999996</v>
       </c>
       <c r="B51" s="1">
-        <v>549.52099999999996</v>
+        <v>532.25300000000004</v>
       </c>
       <c r="C51" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D51" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E51" s="1">
-        <v>891.76400000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.93</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>894.43799999999999</v>
+        <v>837.55700000000002</v>
       </c>
       <c r="B52" s="1">
-        <v>453.69499999999999</v>
+        <v>430.33100000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D52" s="1">
-        <v>12.08</v>
-      </c>
-      <c r="E52" s="1">
-        <v>894.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.93</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>897.96799999999996</v>
+        <v>841.03099999999995</v>
       </c>
       <c r="B53" s="1">
-        <v>356.935</v>
+        <v>325.779</v>
       </c>
       <c r="C53" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D53" s="1">
-        <v>14.05</v>
-      </c>
-      <c r="E53" s="1">
-        <v>898.57100000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.93</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>902.36599999999999</v>
+        <v>845.12</v>
       </c>
       <c r="B54" s="1">
-        <v>257.95999999999998</v>
+        <v>219.30699999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2602.1999999999998</v>
+        <v>2700.2</v>
       </c>
       <c r="D54" s="1">
-        <v>16.05</v>
-      </c>
-      <c r="E54" s="1">
-        <v>902.83199999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.93</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>867.82100000000003</v>
+        <v>812.48900000000003</v>
       </c>
       <c r="B55" s="1">
-        <v>1023.362</v>
+        <v>1023.7430000000001</v>
       </c>
       <c r="C55" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="1">
-        <v>867.76099999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>890.44100000000003</v>
+        <v>830.28300000000002</v>
       </c>
       <c r="B56" s="1">
-        <v>1802.356</v>
+        <v>1810.8009999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D56" s="1">
         <v>-15.9</v>
       </c>
-      <c r="E56" s="1">
-        <v>890.49699999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>885.71900000000005</v>
+        <v>826.41700000000003</v>
       </c>
       <c r="B57" s="1">
-        <v>1707.3820000000001</v>
+        <v>1714.809</v>
       </c>
       <c r="C57" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D57" s="1">
         <v>-14.05</v>
       </c>
-      <c r="E57" s="1">
-        <v>886.18200000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>880.94399999999996</v>
+        <v>822.73500000000001</v>
       </c>
       <c r="B58" s="1">
-        <v>1602.183</v>
+        <v>1613.02</v>
       </c>
       <c r="C58" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>882.00300000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.03</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>877.00300000000004</v>
+        <v>819.74699999999996</v>
       </c>
       <c r="B59" s="1">
-        <v>1498.9269999999999</v>
+        <v>1512.7860000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D59" s="1">
         <v>-10</v>
       </c>
-      <c r="E59" s="1">
-        <v>877.28399999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>873.94500000000005</v>
+        <v>817.39700000000005</v>
       </c>
       <c r="B60" s="1">
-        <v>1402.5260000000001</v>
+        <v>1414.6089999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E60" s="1">
-        <v>874.57299999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>871.38400000000001</v>
+        <v>815.41499999999996</v>
       </c>
       <c r="B61" s="1">
-        <v>1305.6500000000001</v>
+        <v>1317.4549999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D61" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E61" s="1">
-        <v>871.96500000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.03</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>869.55399999999997</v>
+        <v>813.87400000000002</v>
       </c>
       <c r="B62" s="1">
-        <v>1210.712</v>
+        <v>1220.316</v>
       </c>
       <c r="C62" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E62" s="1">
-        <v>869.88300000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.03</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>868.29300000000001</v>
+        <v>812.875</v>
       </c>
       <c r="B63" s="1">
-        <v>1116.133</v>
+        <v>1123.519</v>
       </c>
       <c r="C63" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E63" s="1">
-        <v>868.59799999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>867.89800000000002</v>
+        <v>812.47400000000005</v>
       </c>
       <c r="B64" s="1">
-        <v>1022.205</v>
+        <v>1025.135</v>
       </c>
       <c r="C64" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D64" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E64" s="1">
-        <v>867.75199999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>867.75</v>
+        <v>812.5</v>
       </c>
       <c r="B65" s="1">
-        <v>928.01800000000003</v>
+        <v>928.79700000000003</v>
       </c>
       <c r="C65" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E65" s="1">
-        <v>867.65200000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.95</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>868.24300000000005</v>
+        <v>813.10400000000004</v>
       </c>
       <c r="B66" s="1">
-        <v>835.11699999999996</v>
+        <v>831.00800000000004</v>
       </c>
       <c r="C66" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D66" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E66" s="1">
-        <v>868.31100000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.97</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>869.60500000000002</v>
+        <v>814.13499999999999</v>
       </c>
       <c r="B67" s="1">
-        <v>740.16499999999996</v>
+        <v>734.02099999999996</v>
       </c>
       <c r="C67" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="E67" s="1">
-        <v>870.13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>871.23599999999999</v>
+        <v>815.995</v>
       </c>
       <c r="B68" s="1">
-        <v>646.29200000000003</v>
+        <v>634.49300000000005</v>
       </c>
       <c r="C68" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E68" s="1">
-        <v>871.62099999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.93</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>873.63</v>
+        <v>818.09500000000003</v>
       </c>
       <c r="B69" s="1">
-        <v>551.40800000000002</v>
+        <v>533.21199999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D69" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E69" s="1">
-        <v>873.83600000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.93</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>876.596</v>
+        <v>820.92600000000004</v>
       </c>
       <c r="B70" s="1">
-        <v>455.35899999999998</v>
+        <v>430.851</v>
       </c>
       <c r="C70" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D70" s="1">
-        <v>12.07</v>
-      </c>
-      <c r="E70" s="1">
-        <v>877.16499999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.93</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>880.11599999999999</v>
+        <v>824.048</v>
       </c>
       <c r="B71" s="1">
-        <v>359.428</v>
+        <v>326.74099999999999</v>
       </c>
       <c r="C71" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D71" s="1">
-        <v>14.05</v>
-      </c>
-      <c r="E71" s="1">
-        <v>880.63699999999994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.93</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>884.24800000000005</v>
+        <v>827.995</v>
       </c>
       <c r="B72" s="1">
-        <v>260.23099999999999</v>
+        <v>220.51400000000001</v>
       </c>
       <c r="C72" s="1">
-        <v>2701.9</v>
+        <v>2799.9</v>
       </c>
       <c r="D72" s="1">
-        <v>16.05</v>
-      </c>
-      <c r="E72" s="1">
-        <v>883.88099999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.93</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>851.899</v>
+        <v>797.45100000000002</v>
       </c>
       <c r="B73" s="1">
-        <v>1023.518</v>
+        <v>1023.669</v>
       </c>
       <c r="C73" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
-      <c r="E73" s="1">
-        <v>851.50099999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>873.81</v>
+        <v>814.46299999999997</v>
       </c>
       <c r="B74" s="1">
-        <v>1801.4069999999999</v>
+        <v>1810.7280000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D74" s="1">
         <v>-15.9</v>
       </c>
-      <c r="E74" s="1">
-        <v>874.096</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>869</v>
+        <v>810.90700000000004</v>
       </c>
       <c r="B75" s="1">
-        <v>1706.046</v>
+        <v>1715.2380000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D75" s="1">
         <v>-14.05</v>
       </c>
-      <c r="E75" s="1">
-        <v>869.654</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>864.52499999999998</v>
+        <v>807.39400000000001</v>
       </c>
       <c r="B76" s="1">
-        <v>1601.972</v>
+        <v>1612.771</v>
       </c>
       <c r="C76" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>865.08900000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.03</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>860.74699999999996</v>
+        <v>804.48299999999995</v>
       </c>
       <c r="B77" s="1">
-        <v>1498.53</v>
+        <v>1512.55</v>
       </c>
       <c r="C77" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D77" s="1">
         <v>-10</v>
       </c>
-      <c r="E77" s="1">
-        <v>861.48199999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>857.74199999999996</v>
+        <v>801.98900000000003</v>
       </c>
       <c r="B78" s="1">
-        <v>1402.1980000000001</v>
+        <v>1414.741</v>
       </c>
       <c r="C78" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D78" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E78" s="1">
-        <v>858.43200000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>855.28599999999994</v>
+        <v>800.04200000000003</v>
       </c>
       <c r="B79" s="1">
-        <v>1305.6769999999999</v>
+        <v>1317.0640000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D79" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E79" s="1">
-        <v>855.94500000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.03</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>853.654</v>
+        <v>798.59799999999996</v>
       </c>
       <c r="B80" s="1">
-        <v>1210.5239999999999</v>
+        <v>1220.2729999999999</v>
       </c>
       <c r="C80" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E80" s="1">
-        <v>854.06899999999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.03</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>852.14300000000003</v>
+        <v>797.65800000000002</v>
       </c>
       <c r="B81" s="1">
-        <v>1115.873</v>
+        <v>1123.3710000000001</v>
       </c>
       <c r="C81" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E81" s="1">
-        <v>852.65800000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>851.91200000000003</v>
+        <v>797.46</v>
       </c>
       <c r="B82" s="1">
-        <v>1021.681</v>
+        <v>1025.21</v>
       </c>
       <c r="C82" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D82" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E82" s="1">
-        <v>851.94200000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>851.89300000000003</v>
+        <v>797.49800000000005</v>
       </c>
       <c r="B83" s="1">
-        <v>928.06700000000001</v>
+        <v>929.01400000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E83" s="1">
-        <v>851.50900000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.97</v>
+      </c>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>852.10299999999995</v>
+        <v>797.923</v>
       </c>
       <c r="B84" s="1">
-        <v>835.53399999999999</v>
+        <v>832.71100000000001</v>
       </c>
       <c r="C84" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D84" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E84" s="1">
-        <v>852.51199999999994</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.95</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>853.26700000000005</v>
+        <v>799.00900000000001</v>
       </c>
       <c r="B85" s="1">
-        <v>740.52300000000002</v>
+        <v>735.16300000000001</v>
       </c>
       <c r="C85" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D85" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="E85" s="1">
-        <v>853.43200000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>855.05899999999997</v>
+        <v>800.68499999999995</v>
       </c>
       <c r="B86" s="1">
-        <v>646.68499999999995</v>
+        <v>635.46299999999997</v>
       </c>
       <c r="C86" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E86" s="1">
-        <v>855.31600000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.93</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>857.22500000000002</v>
+        <v>802.745</v>
       </c>
       <c r="B87" s="1">
-        <v>552.24199999999996</v>
+        <v>534.74599999999998</v>
       </c>
       <c r="C87" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D87" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E87" s="1">
-        <v>857.70299999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.93</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>860.06399999999996</v>
+        <v>805.24099999999999</v>
       </c>
       <c r="B88" s="1">
-        <v>456.423</v>
+        <v>432.553</v>
       </c>
       <c r="C88" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D88" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="E88" s="1">
-        <v>861.14400000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.93</v>
+      </c>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>863.59100000000001</v>
+        <v>808.553</v>
       </c>
       <c r="B89" s="1">
-        <v>359.06299999999999</v>
+        <v>327.47899999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D89" s="1">
-        <v>14.07</v>
-      </c>
-      <c r="E89" s="1">
-        <v>864.74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.93</v>
+      </c>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>867.57899999999995</v>
+        <v>812.25400000000002</v>
       </c>
       <c r="B90" s="1">
-        <v>261.99200000000002</v>
+        <v>221.44300000000001</v>
       </c>
       <c r="C90" s="1">
-        <v>2801.6</v>
+        <v>2899.6</v>
       </c>
       <c r="D90" s="1">
-        <v>16.05</v>
-      </c>
-      <c r="E90" s="1">
-        <v>868.14300000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.93</v>
+      </c>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>836.94500000000005</v>
+        <v>783.39800000000002</v>
       </c>
       <c r="B91" s="1">
-        <v>1023.306</v>
+        <v>1023.713</v>
       </c>
       <c r="C91" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
-      <c r="E91" s="1">
-        <v>837.20399999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>858.14800000000002</v>
+        <v>799.74300000000005</v>
       </c>
       <c r="B92" s="1">
-        <v>1800.7470000000001</v>
+        <v>1809.826</v>
       </c>
       <c r="C92" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D92" s="1">
         <v>-15.9</v>
       </c>
-      <c r="E92" s="1">
-        <v>858.548</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>853.80499999999995</v>
+        <v>796.10799999999995</v>
       </c>
       <c r="B93" s="1">
-        <v>1705.144</v>
+        <v>1714.0530000000001</v>
       </c>
       <c r="C93" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D93" s="1">
         <v>-14.05</v>
       </c>
-      <c r="E93" s="1">
-        <v>854.13400000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>849.31899999999996</v>
+        <v>792.96699999999998</v>
       </c>
       <c r="B94" s="1">
-        <v>1601.356</v>
+        <v>1612.377</v>
       </c>
       <c r="C94" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D94" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E94" s="1">
-        <v>849.97699999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.03</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>845.68700000000001</v>
+        <v>790.27499999999998</v>
       </c>
       <c r="B95" s="1">
-        <v>1498.5150000000001</v>
+        <v>1512.011</v>
       </c>
       <c r="C95" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D95" s="1">
         <v>-10</v>
       </c>
-      <c r="E95" s="1">
-        <v>846.452</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>842.48699999999997</v>
+        <v>787.89300000000003</v>
       </c>
       <c r="B96" s="1">
-        <v>1401.499</v>
+        <v>1414.2339999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D96" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E96" s="1">
-        <v>843.13699999999994</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>840.21799999999996</v>
+        <v>786.00699999999995</v>
       </c>
       <c r="B97" s="1">
-        <v>1305.104</v>
+        <v>1317.088</v>
       </c>
       <c r="C97" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D97" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E97" s="1">
-        <v>841.05700000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.03</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>838.71900000000005</v>
+        <v>784.56299999999999</v>
       </c>
       <c r="B98" s="1">
-        <v>1210.49</v>
+        <v>1220.3820000000001</v>
       </c>
       <c r="C98" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D98" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E98" s="1">
-        <v>839.21299999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.03</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>837.44799999999998</v>
+        <v>783.75400000000002</v>
       </c>
       <c r="B99" s="1">
-        <v>1115.7439999999999</v>
+        <v>1123.1420000000001</v>
       </c>
       <c r="C99" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D99" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E99" s="1">
-        <v>837.79700000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>836.91600000000005</v>
+        <v>783.40700000000004</v>
       </c>
       <c r="B100" s="1">
-        <v>1022.104</v>
+        <v>1025.7239999999999</v>
       </c>
       <c r="C100" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D100" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E100" s="1">
-        <v>836.93600000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>836.77499999999998</v>
+        <v>783.45399999999995</v>
       </c>
       <c r="B101" s="1">
-        <v>928.42399999999998</v>
+        <v>929.61400000000003</v>
       </c>
       <c r="C101" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D101" s="1">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E101" s="1">
-        <v>836.95600000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.97</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>837.08399999999995</v>
+        <v>783.73</v>
       </c>
       <c r="B102" s="1">
-        <v>835.61900000000003</v>
+        <v>832.76400000000001</v>
       </c>
       <c r="C102" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D102" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E102" s="1">
-        <v>837.005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.95</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>838.30799999999999</v>
+        <v>784.81299999999999</v>
       </c>
       <c r="B103" s="1">
-        <v>741.74599999999998</v>
+        <v>735.30499999999995</v>
       </c>
       <c r="C103" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D103" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="E103" s="1">
-        <v>838.39300000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>839.83399999999995</v>
+        <v>786.322</v>
       </c>
       <c r="B104" s="1">
-        <v>647.03</v>
+        <v>635.72</v>
       </c>
       <c r="C104" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D104" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E104" s="1">
-        <v>840.33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.93</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>841.923</v>
+        <v>788.29100000000005</v>
       </c>
       <c r="B105" s="1">
-        <v>552.54700000000003</v>
+        <v>535.14599999999996</v>
       </c>
       <c r="C105" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D105" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E105" s="1">
-        <v>842.34799999999996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.93</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>844.83399999999995</v>
+        <v>791</v>
       </c>
       <c r="B106" s="1">
-        <v>457.005</v>
+        <v>433.16500000000002</v>
       </c>
       <c r="C106" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D106" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="E106" s="1">
-        <v>845.25400000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.93</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>848.09</v>
+        <v>794.01300000000003</v>
       </c>
       <c r="B107" s="1">
-        <v>359.87599999999998</v>
+        <v>328.40800000000002</v>
       </c>
       <c r="C107" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D107" s="1">
-        <v>14.07</v>
-      </c>
-      <c r="E107" s="1">
-        <v>848.26499999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.93</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>851.88099999999997</v>
+        <v>797.31700000000001</v>
       </c>
       <c r="B108" s="1">
-        <v>262.46199999999999</v>
+        <v>222.63300000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>2901.3</v>
+        <v>2999.3</v>
       </c>
       <c r="D108" s="1">
-        <v>16.05</v>
-      </c>
-      <c r="E108" s="1">
-        <v>851.90099999999995</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>822.81100000000004</v>
-      </c>
-      <c r="B109" s="1">
-        <v>1023.284</v>
-      </c>
-      <c r="C109" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>822.30600000000004</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>843.678</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1800.0239999999999</v>
-      </c>
-      <c r="C110" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D110" s="1">
-        <v>-15.9</v>
-      </c>
-      <c r="E110" s="1">
-        <v>843.95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>839.34100000000001</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1704.9269999999999</v>
-      </c>
-      <c r="C111" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D111" s="1">
-        <v>-14.07</v>
-      </c>
-      <c r="E111" s="1">
-        <v>839.83299999999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>835.00199999999995</v>
-      </c>
-      <c r="B112" s="1">
-        <v>1600.2159999999999</v>
-      </c>
-      <c r="C112" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D112" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E112" s="1">
-        <v>835.76599999999996</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>831.34400000000005</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1497.394</v>
-      </c>
-      <c r="C113" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D113" s="1">
-        <v>-10</v>
-      </c>
-      <c r="E113" s="1">
-        <v>831.89599999999996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>828.5</v>
-      </c>
-      <c r="B114" s="1">
-        <v>1400.6120000000001</v>
-      </c>
-      <c r="C114" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D114" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E114" s="1">
-        <v>829.16200000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>826.08900000000006</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1304.2449999999999</v>
-      </c>
-      <c r="C115" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D115" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E115" s="1">
-        <v>826.67499999999995</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>824.32100000000003</v>
-      </c>
-      <c r="B116" s="1">
-        <v>1208.3889999999999</v>
-      </c>
-      <c r="C116" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D116" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E116" s="1">
-        <v>824.89599999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>823.12400000000002</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1115.3810000000001</v>
-      </c>
-      <c r="C117" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D117" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E117" s="1">
-        <v>823.51700000000005</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>822.80799999999999</v>
-      </c>
-      <c r="B118" s="1">
-        <v>1021.5549999999999</v>
-      </c>
-      <c r="C118" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E118" s="1">
-        <v>822.14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>822.596</v>
-      </c>
-      <c r="B119" s="1">
-        <v>929.00699999999995</v>
-      </c>
-      <c r="C119" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="E119" s="1">
-        <v>823.07100000000003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>823.04399999999998</v>
-      </c>
-      <c r="B120" s="1">
-        <v>833.95100000000002</v>
-      </c>
-      <c r="C120" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D120" s="1">
-        <v>4.05</v>
-      </c>
-      <c r="E120" s="1">
-        <v>823.34400000000005</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>824.21600000000001</v>
-      </c>
-      <c r="B121" s="1">
-        <v>740.68100000000004</v>
-      </c>
-      <c r="C121" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D121" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="E121" s="1">
-        <v>824.37599999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>825.58399999999995</v>
-      </c>
-      <c r="B122" s="1">
-        <v>646.89</v>
-      </c>
-      <c r="C122" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D122" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E122" s="1">
-        <v>826.40200000000004</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>827.846</v>
-      </c>
-      <c r="B123" s="1">
-        <v>552.68200000000002</v>
-      </c>
-      <c r="C123" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D123" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E123" s="1">
-        <v>828.49400000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>830.553</v>
-      </c>
-      <c r="B124" s="1">
-        <v>457.25599999999997</v>
-      </c>
-      <c r="C124" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D124" s="1">
-        <v>12.07</v>
-      </c>
-      <c r="E124" s="1">
-        <v>830.60500000000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>833.57399999999996</v>
-      </c>
-      <c r="B125" s="1">
-        <v>361.67500000000001</v>
-      </c>
-      <c r="C125" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D125" s="1">
-        <v>14.05</v>
-      </c>
-      <c r="E125" s="1">
-        <v>833.76099999999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>837.399</v>
-      </c>
-      <c r="B126" s="1">
-        <v>262.94900000000001</v>
-      </c>
-      <c r="C126" s="1">
-        <v>3000.9</v>
-      </c>
-      <c r="D126" s="1">
-        <v>16.05</v>
-      </c>
-      <c r="E126" s="1">
-        <v>837.774</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>809.76900000000001</v>
-      </c>
-      <c r="B127" s="1">
-        <v>1023.6180000000001</v>
-      </c>
-      <c r="C127" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1">
-        <v>809.93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>830.00099999999998</v>
-      </c>
-      <c r="B128" s="1">
-        <v>1798.9780000000001</v>
-      </c>
-      <c r="C128" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D128" s="1">
-        <v>-15.9</v>
-      </c>
-      <c r="E128" s="1">
-        <v>830.245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>825.76099999999997</v>
-      </c>
-      <c r="B129" s="1">
-        <v>1703.7159999999999</v>
-      </c>
-      <c r="C129" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D129" s="1">
-        <v>-14.05</v>
-      </c>
-      <c r="E129" s="1">
-        <v>826.14099999999996</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>821.64099999999996</v>
-      </c>
-      <c r="B130" s="1">
-        <v>1599.723</v>
-      </c>
-      <c r="C130" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D130" s="1">
-        <v>-12.1</v>
-      </c>
-      <c r="E130" s="1">
-        <v>821.94500000000005</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>818.11199999999997</v>
-      </c>
-      <c r="B131" s="1">
-        <v>1496.7470000000001</v>
-      </c>
-      <c r="C131" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D131" s="1">
-        <v>-10</v>
-      </c>
-      <c r="E131" s="1">
-        <v>819.09400000000005</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>815.26</v>
-      </c>
-      <c r="B132" s="1">
-        <v>1400.396</v>
-      </c>
-      <c r="C132" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D132" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E132" s="1">
-        <v>815.53300000000002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>812.98500000000001</v>
-      </c>
-      <c r="B133" s="1">
-        <v>1304.248</v>
-      </c>
-      <c r="C133" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D133" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E133" s="1">
-        <v>813.61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>811.47199999999998</v>
-      </c>
-      <c r="B134" s="1">
-        <v>1208.5889999999999</v>
-      </c>
-      <c r="C134" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D134" s="1">
-        <v>-3.97</v>
-      </c>
-      <c r="E134" s="1">
-        <v>811.66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>810.29200000000003</v>
-      </c>
-      <c r="B135" s="1">
-        <v>1115.1880000000001</v>
-      </c>
-      <c r="C135" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D135" s="1">
-        <v>-1.97</v>
-      </c>
-      <c r="E135" s="1">
-        <v>810.75</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>809.76599999999996</v>
-      </c>
-      <c r="B136" s="1">
-        <v>1021.739</v>
-      </c>
-      <c r="C136" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E136" s="1">
-        <v>809.38400000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>809.74199999999996</v>
-      </c>
-      <c r="B137" s="1">
-        <v>929.55200000000002</v>
-      </c>
-      <c r="C137" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D137" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E137" s="1">
-        <v>810.06799999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>810.02599999999995</v>
-      </c>
-      <c r="B138" s="1">
-        <v>835.90599999999995</v>
-      </c>
-      <c r="C138" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D138" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E138" s="1">
-        <v>809.98500000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>811.09100000000001</v>
-      </c>
-      <c r="B139" s="1">
-        <v>741.64700000000005</v>
-      </c>
-      <c r="C139" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D139" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="E139" s="1">
-        <v>811.35699999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>812.59299999999996</v>
-      </c>
-      <c r="B140" s="1">
-        <v>647.48</v>
-      </c>
-      <c r="C140" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D140" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E140" s="1">
-        <v>813.05600000000004</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>814.71199999999999</v>
-      </c>
-      <c r="B141" s="1">
-        <v>553.65599999999995</v>
-      </c>
-      <c r="C141" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D141" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E141" s="1">
-        <v>815.35199999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>817.16899999999998</v>
-      </c>
-      <c r="B142" s="1">
-        <v>458.28300000000002</v>
-      </c>
-      <c r="C142" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D142" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="E142" s="1">
-        <v>817.57899999999995</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>820.36199999999997</v>
-      </c>
-      <c r="B143" s="1">
-        <v>361.238</v>
-      </c>
-      <c r="C143" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D143" s="1">
-        <v>14.07</v>
-      </c>
-      <c r="E143" s="1">
-        <v>820.39099999999996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>823.71199999999999</v>
-      </c>
-      <c r="B144" s="1">
-        <v>263.57400000000001</v>
-      </c>
-      <c r="C144" s="1">
-        <v>3100.6</v>
-      </c>
-      <c r="D144" s="1">
-        <v>16.05</v>
-      </c>
-      <c r="E144" s="1">
-        <v>824.12400000000002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15.93</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>

--- a/Cam5calib.xlsx
+++ b/Cam5calib.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E66C3B-511C-4C59-A208-29F2F1C898B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABFDCD3-E1A1-4188-9668-3688CE745777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18369" yWindow="3257" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16851" yWindow="5186" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,17 +345,17 @@
   <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D108"/>
+      <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>865.49300000000005</v>
+        <v>916.97400000000005</v>
       </c>
       <c r="B1" s="1">
-        <v>1023.806</v>
+        <v>1023.369</v>
       </c>
       <c r="C1" s="1">
         <v>2500.8000000000002</v>
@@ -367,265 +367,265 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>885.3</v>
+        <v>934.54300000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1815.415</v>
+        <v>1780.3920000000001</v>
       </c>
       <c r="C2" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.92</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>881.02700000000004</v>
+        <v>929.96</v>
       </c>
       <c r="B3" s="1">
-        <v>1717.867</v>
+        <v>1675.6579999999999</v>
       </c>
       <c r="C3" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>876.84199999999998</v>
+        <v>926.12400000000002</v>
       </c>
       <c r="B4" s="1">
-        <v>1615.576</v>
+        <v>1578.674</v>
       </c>
       <c r="C4" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.02</v>
+        <v>-11.95</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>873.49699999999996</v>
+        <v>923.22500000000002</v>
       </c>
       <c r="B5" s="1">
-        <v>1515.7750000000001</v>
+        <v>1482.4960000000001</v>
       </c>
       <c r="C5" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-9.93</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>870.55</v>
+        <v>920.53499999999997</v>
       </c>
       <c r="B6" s="1">
-        <v>1417.7550000000001</v>
+        <v>1390.1020000000001</v>
       </c>
       <c r="C6" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.02</v>
+        <v>-7.93</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>868.49099999999999</v>
+        <v>918.76499999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>1319.4359999999999</v>
+        <v>1297.492</v>
       </c>
       <c r="C7" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-6.02</v>
+        <v>-5.95</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>866.84500000000003</v>
+        <v>917.58</v>
       </c>
       <c r="B8" s="1">
-        <v>1221.9469999999999</v>
+        <v>1203.9349999999999</v>
       </c>
       <c r="C8" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.05</v>
+        <v>-3.93</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>865.58799999999997</v>
+        <v>917.02</v>
       </c>
       <c r="B9" s="1">
-        <v>1123.942</v>
+        <v>1111.692</v>
       </c>
       <c r="C9" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.02</v>
+        <v>-1.93</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>865.49599999999998</v>
+        <v>916.899</v>
       </c>
       <c r="B10" s="1">
-        <v>1026.4860000000001</v>
+        <v>1020.639</v>
       </c>
       <c r="C10" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>865.44500000000005</v>
+        <v>917.53</v>
       </c>
       <c r="B11" s="1">
-        <v>928.74400000000003</v>
+        <v>927.79600000000005</v>
       </c>
       <c r="C11" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>1.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>866.14599999999996</v>
+        <v>918.529</v>
       </c>
       <c r="B12" s="1">
-        <v>831.93799999999999</v>
+        <v>836.50400000000002</v>
       </c>
       <c r="C12" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>3.95</v>
+        <v>4.07</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>867.42899999999997</v>
+        <v>920.48699999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>733.33699999999999</v>
+        <v>744.53200000000004</v>
       </c>
       <c r="C13" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>869.24099999999999</v>
+        <v>922.75</v>
       </c>
       <c r="B14" s="1">
-        <v>633.87400000000002</v>
+        <v>651.29</v>
       </c>
       <c r="C14" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>871.77700000000004</v>
+        <v>925.73900000000003</v>
       </c>
       <c r="B15" s="1">
-        <v>531.69500000000005</v>
+        <v>557.36199999999997</v>
       </c>
       <c r="C15" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>875.18100000000004</v>
+        <v>929.5</v>
       </c>
       <c r="B16" s="1">
-        <v>429.46300000000002</v>
+        <v>463.38400000000001</v>
       </c>
       <c r="C16" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>878.79300000000001</v>
+        <v>933.58399999999995</v>
       </c>
       <c r="B17" s="1">
-        <v>324.94299999999998</v>
+        <v>369.45299999999997</v>
       </c>
       <c r="C17" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>13.9</v>
+        <v>14.07</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>883.32600000000002</v>
+        <v>938.57</v>
       </c>
       <c r="B18" s="1">
-        <v>217.14599999999999</v>
+        <v>273.11500000000001</v>
       </c>
       <c r="C18" s="1">
         <v>2500.8000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>15.93</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>846.48299999999995</v>
+        <v>898.00099999999998</v>
       </c>
       <c r="B19" s="1">
-        <v>1023.657</v>
+        <v>1023.342</v>
       </c>
       <c r="C19" s="1">
         <v>2600.5</v>
@@ -637,265 +637,265 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>865.48599999999999</v>
+        <v>915.27599999999995</v>
       </c>
       <c r="B20" s="1">
-        <v>1812.9760000000001</v>
+        <v>1779.3630000000001</v>
       </c>
       <c r="C20" s="1">
         <v>2600.5</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>861.31100000000004</v>
+        <v>910.63800000000003</v>
       </c>
       <c r="B21" s="1">
-        <v>1716.6279999999999</v>
+        <v>1674.001</v>
       </c>
       <c r="C21" s="1">
         <v>2600.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>857.46</v>
+        <v>907.04200000000003</v>
       </c>
       <c r="B22" s="1">
-        <v>1613.8789999999999</v>
+        <v>1577.7080000000001</v>
       </c>
       <c r="C22" s="1">
         <v>2600.5</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.03</v>
+        <v>-11.93</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>854.22400000000005</v>
+        <v>904.28300000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>1513.3779999999999</v>
+        <v>1483.6389999999999</v>
       </c>
       <c r="C23" s="1">
         <v>2600.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>851.51400000000001</v>
+        <v>901.59799999999996</v>
       </c>
       <c r="B24" s="1">
-        <v>1416.23</v>
+        <v>1389.7180000000001</v>
       </c>
       <c r="C24" s="1">
         <v>2600.5</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-7.93</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>849.46199999999999</v>
+        <v>899.96</v>
       </c>
       <c r="B25" s="1">
-        <v>1317.277</v>
+        <v>1296.4570000000001</v>
       </c>
       <c r="C25" s="1">
         <v>2600.5</v>
       </c>
       <c r="D25" s="1">
-        <v>-6.03</v>
+        <v>-5.95</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>847.745</v>
+        <v>898.67100000000005</v>
       </c>
       <c r="B26" s="1">
-        <v>1220.443</v>
+        <v>1204.3009999999999</v>
       </c>
       <c r="C26" s="1">
         <v>2600.5</v>
       </c>
       <c r="D26" s="1">
-        <v>-4.03</v>
+        <v>-3.93</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>846.64300000000003</v>
+        <v>898.02099999999996</v>
       </c>
       <c r="B27" s="1">
-        <v>1123.088</v>
+        <v>1112.383</v>
       </c>
       <c r="C27" s="1">
         <v>2600.5</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.0499999999999998</v>
+        <v>-1.93</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>846.48900000000003</v>
+        <v>898.00099999999998</v>
       </c>
       <c r="B28" s="1">
-        <v>1024.828</v>
+        <v>1020.277</v>
       </c>
       <c r="C28" s="1">
         <v>2600.5</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>846.50699999999995</v>
+        <v>898.58399999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>927.87900000000002</v>
+        <v>927.72</v>
       </c>
       <c r="C29" s="1">
         <v>2600.5</v>
       </c>
       <c r="D29" s="1">
-        <v>1.97</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>847.07</v>
+        <v>899.60599999999999</v>
       </c>
       <c r="B30" s="1">
-        <v>831.42399999999998</v>
+        <v>836.81600000000003</v>
       </c>
       <c r="C30" s="1">
         <v>2600.5</v>
       </c>
       <c r="D30" s="1">
-        <v>3.95</v>
+        <v>4.07</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>848.12900000000002</v>
+        <v>901.49699999999996</v>
       </c>
       <c r="B31" s="1">
-        <v>733.06</v>
+        <v>744.83399999999995</v>
       </c>
       <c r="C31" s="1">
         <v>2600.5</v>
       </c>
       <c r="D31" s="1">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>850.08600000000001</v>
+        <v>903.66</v>
       </c>
       <c r="B32" s="1">
-        <v>633.05899999999997</v>
+        <v>652.20500000000004</v>
       </c>
       <c r="C32" s="1">
         <v>2600.5</v>
       </c>
       <c r="D32" s="1">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>852.58299999999997</v>
+        <v>906.54700000000003</v>
       </c>
       <c r="B33" s="1">
-        <v>531.50900000000001</v>
+        <v>557.64300000000003</v>
       </c>
       <c r="C33" s="1">
         <v>2600.5</v>
       </c>
       <c r="D33" s="1">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>855.54499999999996</v>
+        <v>910.28499999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>428.79599999999999</v>
+        <v>464.608</v>
       </c>
       <c r="C34" s="1">
         <v>2600.5</v>
       </c>
       <c r="D34" s="1">
-        <v>11.93</v>
+        <v>12.07</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>859.13599999999997</v>
+        <v>914.47299999999996</v>
       </c>
       <c r="B35" s="1">
-        <v>325.31200000000001</v>
+        <v>368.67500000000001</v>
       </c>
       <c r="C35" s="1">
         <v>2600.5</v>
       </c>
       <c r="D35" s="1">
-        <v>13.93</v>
+        <v>14.1</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>863.471</v>
+        <v>918.87599999999998</v>
       </c>
       <c r="B36" s="1">
-        <v>218.34200000000001</v>
+        <v>273.553</v>
       </c>
       <c r="C36" s="1">
         <v>2600.5</v>
       </c>
       <c r="D36" s="1">
-        <v>15.93</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>828.57</v>
+        <v>880.61800000000005</v>
       </c>
       <c r="B37" s="1">
-        <v>1023.683</v>
+        <v>1023.821</v>
       </c>
       <c r="C37" s="1">
         <v>2700.2</v>
@@ -907,265 +907,265 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>847.04600000000005</v>
+        <v>897.16700000000003</v>
       </c>
       <c r="B38" s="1">
-        <v>1811.4590000000001</v>
+        <v>1780.9690000000001</v>
       </c>
       <c r="C38" s="1">
         <v>2700.2</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>843.125</v>
+        <v>892.83299999999997</v>
       </c>
       <c r="B39" s="1">
-        <v>1715.5840000000001</v>
+        <v>1675.692</v>
       </c>
       <c r="C39" s="1">
         <v>2700.2</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>839.51700000000005</v>
+        <v>889.27300000000002</v>
       </c>
       <c r="B40" s="1">
-        <v>1613.087</v>
+        <v>1578.1489999999999</v>
       </c>
       <c r="C40" s="1">
         <v>2700.2</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>836.44799999999998</v>
+        <v>886.49900000000002</v>
       </c>
       <c r="B41" s="1">
-        <v>1512.8620000000001</v>
+        <v>1483.7270000000001</v>
       </c>
       <c r="C41" s="1">
         <v>2700.2</v>
       </c>
       <c r="D41" s="1">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>833.68399999999997</v>
+        <v>884.19299999999998</v>
       </c>
       <c r="B42" s="1">
-        <v>1415.145</v>
+        <v>1391.367</v>
       </c>
       <c r="C42" s="1">
         <v>2700.2</v>
       </c>
       <c r="D42" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-7.95</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>831.58</v>
+        <v>882.43700000000001</v>
       </c>
       <c r="B43" s="1">
-        <v>1317.2190000000001</v>
+        <v>1297.1310000000001</v>
       </c>
       <c r="C43" s="1">
         <v>2700.2</v>
       </c>
       <c r="D43" s="1">
-        <v>-6.03</v>
+        <v>-5.92</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>830.36</v>
+        <v>881.21299999999997</v>
       </c>
       <c r="B44" s="1">
-        <v>1220.1790000000001</v>
+        <v>1205.4069999999999</v>
       </c>
       <c r="C44" s="1">
         <v>2700.2</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.03</v>
+        <v>-3.95</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>829.43</v>
+        <v>880.79399999999998</v>
       </c>
       <c r="B45" s="1">
-        <v>1123.23</v>
+        <v>1112.3900000000001</v>
       </c>
       <c r="C45" s="1">
         <v>2700.2</v>
       </c>
       <c r="D45" s="1">
-        <v>-2.0299999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>828.64599999999996</v>
+        <v>880.62300000000005</v>
       </c>
       <c r="B46" s="1">
-        <v>1026.5930000000001</v>
+        <v>1021.3630000000001</v>
       </c>
       <c r="C46" s="1">
         <v>2700.2</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>828.82399999999996</v>
+        <v>881.02</v>
       </c>
       <c r="B47" s="1">
-        <v>928.52599999999995</v>
+        <v>929.12</v>
       </c>
       <c r="C47" s="1">
         <v>2700.2</v>
       </c>
       <c r="D47" s="1">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>829.49300000000005</v>
+        <v>882.29300000000001</v>
       </c>
       <c r="B48" s="1">
-        <v>831.62800000000004</v>
+        <v>838.02099999999996</v>
       </c>
       <c r="C48" s="1">
         <v>2700.2</v>
       </c>
       <c r="D48" s="1">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>830.87800000000004</v>
+        <v>883.73800000000006</v>
       </c>
       <c r="B49" s="1">
-        <v>733.60799999999995</v>
+        <v>746.38199999999995</v>
       </c>
       <c r="C49" s="1">
         <v>2700.2</v>
       </c>
       <c r="D49" s="1">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>832.14599999999996</v>
+        <v>886.01700000000005</v>
       </c>
       <c r="B50" s="1">
-        <v>633.41899999999998</v>
+        <v>654.02499999999998</v>
       </c>
       <c r="C50" s="1">
         <v>2700.2</v>
       </c>
       <c r="D50" s="1">
-        <v>7.93</v>
+        <v>8.08</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>834.77099999999996</v>
+        <v>888.94799999999998</v>
       </c>
       <c r="B51" s="1">
-        <v>532.25300000000004</v>
+        <v>560.24699999999996</v>
       </c>
       <c r="C51" s="1">
         <v>2700.2</v>
       </c>
       <c r="D51" s="1">
-        <v>9.93</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>837.55700000000002</v>
+        <v>892.29399999999998</v>
       </c>
       <c r="B52" s="1">
-        <v>430.33100000000002</v>
+        <v>466.09899999999999</v>
       </c>
       <c r="C52" s="1">
         <v>2700.2</v>
       </c>
       <c r="D52" s="1">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>841.03099999999995</v>
+        <v>896.428</v>
       </c>
       <c r="B53" s="1">
-        <v>325.779</v>
+        <v>370.87</v>
       </c>
       <c r="C53" s="1">
         <v>2700.2</v>
       </c>
       <c r="D53" s="1">
-        <v>13.93</v>
+        <v>14.1</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>845.12</v>
+        <v>900.60500000000002</v>
       </c>
       <c r="B54" s="1">
-        <v>219.30699999999999</v>
+        <v>275.11099999999999</v>
       </c>
       <c r="C54" s="1">
         <v>2700.2</v>
       </c>
       <c r="D54" s="1">
-        <v>15.93</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>812.48900000000003</v>
+        <v>864.26599999999996</v>
       </c>
       <c r="B55" s="1">
-        <v>1023.7430000000001</v>
+        <v>1023.289</v>
       </c>
       <c r="C55" s="1">
         <v>2799.9</v>
@@ -1177,265 +1177,265 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>830.28300000000002</v>
+        <v>880.31899999999996</v>
       </c>
       <c r="B56" s="1">
-        <v>1810.8009999999999</v>
+        <v>1778.1949999999999</v>
       </c>
       <c r="C56" s="1">
         <v>2799.9</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>826.41700000000003</v>
+        <v>876.005</v>
       </c>
       <c r="B57" s="1">
-        <v>1714.809</v>
+        <v>1673.183</v>
       </c>
       <c r="C57" s="1">
         <v>2799.9</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.05</v>
+        <v>-13.98</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>822.73500000000001</v>
+        <v>872.67899999999997</v>
       </c>
       <c r="B58" s="1">
-        <v>1613.02</v>
+        <v>1575.6320000000001</v>
       </c>
       <c r="C58" s="1">
         <v>2799.9</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.03</v>
+        <v>-11.93</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>819.74699999999996</v>
+        <v>870.10199999999998</v>
       </c>
       <c r="B59" s="1">
-        <v>1512.7860000000001</v>
+        <v>1482.0530000000001</v>
       </c>
       <c r="C59" s="1">
         <v>2799.9</v>
       </c>
       <c r="D59" s="1">
-        <v>-10</v>
+        <v>-9.93</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>817.39700000000005</v>
+        <v>867.61400000000003</v>
       </c>
       <c r="B60" s="1">
-        <v>1414.6089999999999</v>
+        <v>1389.088</v>
       </c>
       <c r="C60" s="1">
         <v>2799.9</v>
       </c>
       <c r="D60" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-7.95</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>815.41499999999996</v>
+        <v>866.03899999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>1317.4549999999999</v>
+        <v>1295.472</v>
       </c>
       <c r="C61" s="1">
         <v>2799.9</v>
       </c>
       <c r="D61" s="1">
-        <v>-6.03</v>
+        <v>-5.93</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>813.87400000000002</v>
+        <v>865.02</v>
       </c>
       <c r="B62" s="1">
-        <v>1220.316</v>
+        <v>1204.1189999999999</v>
       </c>
       <c r="C62" s="1">
         <v>2799.9</v>
       </c>
       <c r="D62" s="1">
-        <v>-4.03</v>
+        <v>-3.93</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>812.875</v>
+        <v>864.41600000000005</v>
       </c>
       <c r="B63" s="1">
-        <v>1123.519</v>
+        <v>1112.9549999999999</v>
       </c>
       <c r="C63" s="1">
         <v>2799.9</v>
       </c>
       <c r="D63" s="1">
-        <v>-2.0499999999999998</v>
+        <v>-1.95</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>812.47400000000005</v>
+        <v>864.173</v>
       </c>
       <c r="B64" s="1">
-        <v>1025.135</v>
+        <v>1019.616</v>
       </c>
       <c r="C64" s="1">
         <v>2799.9</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>812.5</v>
+        <v>865</v>
       </c>
       <c r="B65" s="1">
-        <v>928.79700000000003</v>
+        <v>929.23500000000001</v>
       </c>
       <c r="C65" s="1">
         <v>2799.9</v>
       </c>
       <c r="D65" s="1">
-        <v>1.95</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>813.10400000000004</v>
+        <v>865.98699999999997</v>
       </c>
       <c r="B66" s="1">
-        <v>831.00800000000004</v>
+        <v>837.89599999999996</v>
       </c>
       <c r="C66" s="1">
         <v>2799.9</v>
       </c>
       <c r="D66" s="1">
-        <v>3.97</v>
+        <v>4.07</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>814.13499999999999</v>
+        <v>867.52099999999996</v>
       </c>
       <c r="B67" s="1">
-        <v>734.02099999999996</v>
+        <v>746.024</v>
       </c>
       <c r="C67" s="1">
         <v>2799.9</v>
       </c>
       <c r="D67" s="1">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>815.995</v>
+        <v>869.60199999999998</v>
       </c>
       <c r="B68" s="1">
-        <v>634.49300000000005</v>
+        <v>653.37800000000004</v>
       </c>
       <c r="C68" s="1">
         <v>2799.9</v>
       </c>
       <c r="D68" s="1">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>818.09500000000003</v>
+        <v>872.35799999999995</v>
       </c>
       <c r="B69" s="1">
-        <v>533.21199999999999</v>
+        <v>559.99300000000005</v>
       </c>
       <c r="C69" s="1">
         <v>2799.9</v>
       </c>
       <c r="D69" s="1">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>820.92600000000004</v>
+        <v>875.92499999999995</v>
       </c>
       <c r="B70" s="1">
-        <v>430.851</v>
+        <v>466.41300000000001</v>
       </c>
       <c r="C70" s="1">
         <v>2799.9</v>
       </c>
       <c r="D70" s="1">
-        <v>11.93</v>
+        <v>12.07</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>824.048</v>
+        <v>879.58600000000001</v>
       </c>
       <c r="B71" s="1">
-        <v>326.74099999999999</v>
+        <v>370.72199999999998</v>
       </c>
       <c r="C71" s="1">
         <v>2799.9</v>
       </c>
       <c r="D71" s="1">
-        <v>13.93</v>
+        <v>14.1</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>827.995</v>
+        <v>883.928</v>
       </c>
       <c r="B72" s="1">
-        <v>220.51400000000001</v>
+        <v>275.89299999999997</v>
       </c>
       <c r="C72" s="1">
         <v>2799.9</v>
       </c>
       <c r="D72" s="1">
-        <v>15.93</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>797.45100000000002</v>
+        <v>849.22299999999996</v>
       </c>
       <c r="B73" s="1">
-        <v>1023.669</v>
+        <v>1023.567</v>
       </c>
       <c r="C73" s="1">
         <v>2899.6</v>
@@ -1447,527 +1447,383 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>814.46299999999997</v>
+        <v>864.55100000000004</v>
       </c>
       <c r="B74" s="1">
-        <v>1810.7280000000001</v>
+        <v>1777.473</v>
       </c>
       <c r="C74" s="1">
         <v>2899.6</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>810.90700000000004</v>
+        <v>860.62599999999998</v>
       </c>
       <c r="B75" s="1">
-        <v>1715.2380000000001</v>
+        <v>1672.5609999999999</v>
       </c>
       <c r="C75" s="1">
         <v>2899.6</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.05</v>
+        <v>-13.98</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>807.39400000000001</v>
+        <v>857.43100000000004</v>
       </c>
       <c r="B76" s="1">
-        <v>1612.771</v>
+        <v>1575.2629999999999</v>
       </c>
       <c r="C76" s="1">
         <v>2899.6</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.03</v>
+        <v>-11.93</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>804.48299999999995</v>
+        <v>854.68</v>
       </c>
       <c r="B77" s="1">
-        <v>1512.55</v>
+        <v>1481.7360000000001</v>
       </c>
       <c r="C77" s="1">
         <v>2899.6</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-9.93</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>801.98900000000003</v>
+        <v>852.56100000000004</v>
       </c>
       <c r="B78" s="1">
-        <v>1414.741</v>
+        <v>1388.454</v>
       </c>
       <c r="C78" s="1">
         <v>2899.6</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-7.93</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>800.04200000000003</v>
+        <v>851</v>
       </c>
       <c r="B79" s="1">
-        <v>1317.0640000000001</v>
+        <v>1295.7550000000001</v>
       </c>
       <c r="C79" s="1">
         <v>2899.6</v>
       </c>
       <c r="D79" s="1">
-        <v>-6.03</v>
+        <v>-5.95</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>798.59799999999996</v>
+        <v>850</v>
       </c>
       <c r="B80" s="1">
-        <v>1220.2729999999999</v>
+        <v>1203.5809999999999</v>
       </c>
       <c r="C80" s="1">
         <v>2899.6</v>
       </c>
       <c r="D80" s="1">
-        <v>-4.03</v>
+        <v>-3.93</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>797.65800000000002</v>
+        <v>849.15</v>
       </c>
       <c r="B81" s="1">
-        <v>1123.3710000000001</v>
+        <v>1112.662</v>
       </c>
       <c r="C81" s="1">
         <v>2899.6</v>
       </c>
       <c r="D81" s="1">
-        <v>-2.0499999999999998</v>
+        <v>-1.93</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>797.46</v>
+        <v>849.22199999999998</v>
       </c>
       <c r="B82" s="1">
-        <v>1025.21</v>
+        <v>1020.99</v>
       </c>
       <c r="C82" s="1">
         <v>2899.6</v>
       </c>
       <c r="D82" s="1">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>797.49800000000005</v>
+        <v>849.99400000000003</v>
       </c>
       <c r="B83" s="1">
-        <v>929.01400000000001</v>
+        <v>929.32500000000005</v>
       </c>
       <c r="C83" s="1">
         <v>2899.6</v>
       </c>
       <c r="D83" s="1">
-        <v>1.97</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>797.923</v>
+        <v>850.98699999999997</v>
       </c>
       <c r="B84" s="1">
-        <v>832.71100000000001</v>
+        <v>838.12400000000002</v>
       </c>
       <c r="C84" s="1">
         <v>2899.6</v>
       </c>
       <c r="D84" s="1">
-        <v>3.95</v>
+        <v>4.07</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>799.00900000000001</v>
+        <v>852.48400000000004</v>
       </c>
       <c r="B85" s="1">
-        <v>735.16300000000001</v>
+        <v>746.50699999999995</v>
       </c>
       <c r="C85" s="1">
         <v>2899.6</v>
       </c>
       <c r="D85" s="1">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>800.68499999999995</v>
+        <v>854.50300000000004</v>
       </c>
       <c r="B86" s="1">
-        <v>635.46299999999997</v>
+        <v>653.22699999999998</v>
       </c>
       <c r="C86" s="1">
         <v>2899.6</v>
       </c>
       <c r="D86" s="1">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>802.745</v>
+        <v>857.04700000000003</v>
       </c>
       <c r="B87" s="1">
-        <v>534.74599999999998</v>
+        <v>560.66399999999999</v>
       </c>
       <c r="C87" s="1">
         <v>2899.6</v>
       </c>
       <c r="D87" s="1">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>805.24099999999999</v>
+        <v>860.42899999999997</v>
       </c>
       <c r="B88" s="1">
-        <v>432.553</v>
+        <v>467.00299999999999</v>
       </c>
       <c r="C88" s="1">
         <v>2899.6</v>
       </c>
       <c r="D88" s="1">
-        <v>11.93</v>
+        <v>12.07</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>808.553</v>
+        <v>864.30499999999995</v>
       </c>
       <c r="B89" s="1">
-        <v>327.47899999999998</v>
+        <v>372.666</v>
       </c>
       <c r="C89" s="1">
         <v>2899.6</v>
       </c>
       <c r="D89" s="1">
-        <v>13.93</v>
+        <v>14.1</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>812.25400000000002</v>
+        <v>868.40599999999995</v>
       </c>
       <c r="B90" s="1">
-        <v>221.44300000000001</v>
+        <v>277.83699999999999</v>
       </c>
       <c r="C90" s="1">
         <v>2899.6</v>
       </c>
       <c r="D90" s="1">
-        <v>15.93</v>
+        <v>16.07</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>783.39800000000002</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1023.713</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>799.74300000000005</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1809.826</v>
-      </c>
-      <c r="C92" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D92" s="1">
-        <v>-15.9</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>796.10799999999995</v>
-      </c>
-      <c r="B93" s="1">
-        <v>1714.0530000000001</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D93" s="1">
-        <v>-14.05</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>792.96699999999998</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1612.377</v>
-      </c>
-      <c r="C94" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D94" s="1">
-        <v>-12.03</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>790.27499999999998</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1512.011</v>
-      </c>
-      <c r="C95" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D95" s="1">
-        <v>-10</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>787.89300000000003</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1414.2339999999999</v>
-      </c>
-      <c r="C96" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D96" s="1">
-        <v>-8.0299999999999994</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>786.00699999999995</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1317.088</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D97" s="1">
-        <v>-6.03</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>784.56299999999999</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1220.3820000000001</v>
-      </c>
-      <c r="C98" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D98" s="1">
-        <v>-4.03</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>783.75400000000002</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1123.1420000000001</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D99" s="1">
-        <v>-2.0499999999999998</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>783.40700000000004</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1025.7239999999999</v>
-      </c>
-      <c r="C100" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D100" s="1">
-        <v>-0.03</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>783.45399999999995</v>
-      </c>
-      <c r="B101" s="1">
-        <v>929.61400000000003</v>
-      </c>
-      <c r="C101" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D101" s="1">
-        <v>1.97</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>783.73</v>
-      </c>
-      <c r="B102" s="1">
-        <v>832.76400000000001</v>
-      </c>
-      <c r="C102" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D102" s="1">
-        <v>3.95</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>784.81299999999999</v>
-      </c>
-      <c r="B103" s="1">
-        <v>735.30499999999995</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D103" s="1">
-        <v>5.95</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>786.322</v>
-      </c>
-      <c r="B104" s="1">
-        <v>635.72</v>
-      </c>
-      <c r="C104" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D104" s="1">
-        <v>7.93</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>788.29100000000005</v>
-      </c>
-      <c r="B105" s="1">
-        <v>535.14599999999996</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D105" s="1">
-        <v>9.93</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>791</v>
-      </c>
-      <c r="B106" s="1">
-        <v>433.16500000000002</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D106" s="1">
-        <v>11.93</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>794.01300000000003</v>
-      </c>
-      <c r="B107" s="1">
-        <v>328.40800000000002</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D107" s="1">
-        <v>13.93</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>797.31700000000001</v>
-      </c>
-      <c r="B108" s="1">
-        <v>222.63300000000001</v>
-      </c>
-      <c r="C108" s="1">
-        <v>2999.3</v>
-      </c>
-      <c r="D108" s="1">
-        <v>15.93</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">

--- a/Cam5calib.xlsx
+++ b/Cam5calib.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABFDCD3-E1A1-4188-9668-3688CE745777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021A7D9-ED62-408E-B163-FEC65CD96CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16851" yWindow="5186" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5931" yWindow="2546" windowWidth="9266" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,13 +352,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>916.97400000000005</v>
+        <v>868.41099999999994</v>
       </c>
       <c r="B1" s="1">
-        <v>1023.369</v>
+        <v>1023.727</v>
       </c>
       <c r="C1" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -367,268 +367,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>934.54300000000001</v>
+        <v>888.529</v>
       </c>
       <c r="B2" s="1">
-        <v>1780.3920000000001</v>
+        <v>1833.9269999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>929.96</v>
+        <v>883.97699999999998</v>
       </c>
       <c r="B3" s="1">
-        <v>1675.6579999999999</v>
+        <v>1738.1659999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.95</v>
+        <v>-14.1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>926.12400000000002</v>
+        <v>879.8</v>
       </c>
       <c r="B4" s="1">
-        <v>1578.674</v>
+        <v>1632.423</v>
       </c>
       <c r="C4" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.95</v>
+        <v>-12.03</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>923.22500000000002</v>
+        <v>876.08100000000002</v>
       </c>
       <c r="B5" s="1">
-        <v>1482.4960000000001</v>
+        <v>1531.8150000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.93</v>
+        <v>-10.07</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>920.53499999999997</v>
+        <v>873.38400000000001</v>
       </c>
       <c r="B6" s="1">
-        <v>1390.1020000000001</v>
+        <v>1430.6859999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.93</v>
+        <v>-8.07</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>918.76499999999999</v>
+        <v>871.05100000000004</v>
       </c>
       <c r="B7" s="1">
-        <v>1297.492</v>
+        <v>1329.8530000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>917.58</v>
+        <v>869.49400000000003</v>
       </c>
       <c r="B8" s="1">
-        <v>1203.9349999999999</v>
+        <v>1229.239</v>
       </c>
       <c r="C8" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.93</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>917.02</v>
+        <v>868.52700000000004</v>
       </c>
       <c r="B9" s="1">
-        <v>1111.692</v>
+        <v>1128.01</v>
       </c>
       <c r="C9" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.93</v>
+        <v>-2.08</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>916.899</v>
+        <v>868.41099999999994</v>
       </c>
       <c r="B10" s="1">
-        <v>1020.639</v>
+        <v>1028.586</v>
       </c>
       <c r="C10" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>917.53</v>
+        <v>868.82799999999997</v>
       </c>
       <c r="B11" s="1">
-        <v>927.79600000000005</v>
+        <v>927.45899999999995</v>
       </c>
       <c r="C11" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>918.529</v>
+        <v>870.00599999999997</v>
       </c>
       <c r="B12" s="1">
-        <v>836.50400000000002</v>
+        <v>826.91600000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D12" s="1">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>920.48699999999997</v>
+        <v>871.846</v>
       </c>
       <c r="B13" s="1">
-        <v>744.53200000000004</v>
+        <v>726.83600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D13" s="1">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>922.75</v>
+        <v>874.40099999999995</v>
       </c>
       <c r="B14" s="1">
-        <v>651.29</v>
+        <v>625.05600000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D14" s="1">
-        <v>8.07</v>
+        <v>7.93</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>925.73900000000003</v>
+        <v>877.58399999999995</v>
       </c>
       <c r="B15" s="1">
-        <v>557.36199999999997</v>
+        <v>523.56200000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D15" s="1">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>929.5</v>
+        <v>881.529</v>
       </c>
       <c r="B16" s="1">
-        <v>463.38400000000001</v>
+        <v>420.87700000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D16" s="1">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>933.58399999999995</v>
+        <v>885.94899999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>369.45299999999997</v>
+        <v>318.38</v>
       </c>
       <c r="C17" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D17" s="1">
-        <v>14.07</v>
+        <v>13.95</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>938.57</v>
+        <v>891.02099999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>273.11500000000001</v>
+        <v>213.31</v>
       </c>
       <c r="C18" s="1">
-        <v>2500.8000000000002</v>
+        <v>2550.4</v>
       </c>
       <c r="D18" s="1">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>898.00099999999998</v>
+        <v>850.13300000000004</v>
       </c>
       <c r="B19" s="1">
-        <v>1023.342</v>
+        <v>1023.418</v>
       </c>
       <c r="C19" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -637,268 +637,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>915.27599999999995</v>
+        <v>869.50099999999998</v>
       </c>
       <c r="B20" s="1">
-        <v>1779.3630000000001</v>
+        <v>1832.37</v>
       </c>
       <c r="C20" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>910.63800000000003</v>
+        <v>865.22400000000005</v>
       </c>
       <c r="B21" s="1">
-        <v>1674.001</v>
+        <v>1737.0070000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.95</v>
+        <v>-14.07</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>907.04200000000003</v>
+        <v>861.01599999999996</v>
       </c>
       <c r="B22" s="1">
-        <v>1577.7080000000001</v>
+        <v>1632.4639999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.93</v>
+        <v>-12.05</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>904.28300000000002</v>
+        <v>857.56500000000005</v>
       </c>
       <c r="B23" s="1">
-        <v>1483.6389999999999</v>
+        <v>1531.191</v>
       </c>
       <c r="C23" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.07</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>901.59799999999996</v>
+        <v>854.73099999999999</v>
       </c>
       <c r="B24" s="1">
-        <v>1389.7180000000001</v>
+        <v>1430.43</v>
       </c>
       <c r="C24" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.93</v>
+        <v>-8.07</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>899.96</v>
+        <v>852.59500000000003</v>
       </c>
       <c r="B25" s="1">
-        <v>1296.4570000000001</v>
+        <v>1329.59</v>
       </c>
       <c r="C25" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>898.67100000000005</v>
+        <v>851.41700000000003</v>
       </c>
       <c r="B26" s="1">
-        <v>1204.3009999999999</v>
+        <v>1229.0550000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.93</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>898.02099999999996</v>
+        <v>850.40599999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>1112.383</v>
+        <v>1128.2349999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.93</v>
+        <v>-2.08</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>898.00099999999998</v>
+        <v>850.28499999999997</v>
       </c>
       <c r="B28" s="1">
-        <v>1020.277</v>
+        <v>1028.5730000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>898.58399999999995</v>
+        <v>850.73500000000001</v>
       </c>
       <c r="B29" s="1">
-        <v>927.72</v>
+        <v>927.67700000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>899.60599999999999</v>
+        <v>851.75400000000002</v>
       </c>
       <c r="B30" s="1">
-        <v>836.81600000000003</v>
+        <v>827.14</v>
       </c>
       <c r="C30" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D30" s="1">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>901.49699999999996</v>
+        <v>853.52</v>
       </c>
       <c r="B31" s="1">
-        <v>744.83399999999995</v>
+        <v>727.42100000000005</v>
       </c>
       <c r="C31" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D31" s="1">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>903.66</v>
+        <v>855.99300000000005</v>
       </c>
       <c r="B32" s="1">
-        <v>652.20500000000004</v>
+        <v>625.84199999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D32" s="1">
-        <v>8.07</v>
+        <v>7.93</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>906.54700000000003</v>
+        <v>859.00699999999995</v>
       </c>
       <c r="B33" s="1">
-        <v>557.64300000000003</v>
+        <v>523.97400000000005</v>
       </c>
       <c r="C33" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D33" s="1">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>910.28499999999997</v>
+        <v>862.95299999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>464.608</v>
+        <v>421.69499999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D34" s="1">
-        <v>12.07</v>
+        <v>11.95</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>914.47299999999996</v>
+        <v>867.26199999999994</v>
       </c>
       <c r="B35" s="1">
-        <v>368.67500000000001</v>
+        <v>318.32600000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D35" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>918.87599999999998</v>
+        <v>871.92899999999997</v>
       </c>
       <c r="B36" s="1">
-        <v>273.553</v>
+        <v>214.256</v>
       </c>
       <c r="C36" s="1">
-        <v>2600.5</v>
+        <v>2650.1</v>
       </c>
       <c r="D36" s="1">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>880.61800000000005</v>
+        <v>833.40200000000004</v>
       </c>
       <c r="B37" s="1">
-        <v>1023.821</v>
+        <v>1023.812</v>
       </c>
       <c r="C37" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -907,268 +907,268 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>897.16700000000003</v>
+        <v>852.06299999999999</v>
       </c>
       <c r="B38" s="1">
-        <v>1780.9690000000001</v>
+        <v>1832.27</v>
       </c>
       <c r="C38" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>892.83299999999997</v>
+        <v>847.72400000000005</v>
       </c>
       <c r="B39" s="1">
-        <v>1675.692</v>
+        <v>1735.9929999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.97</v>
+        <v>-14.1</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>889.27300000000002</v>
+        <v>843.91200000000003</v>
       </c>
       <c r="B40" s="1">
-        <v>1578.1489999999999</v>
+        <v>1629.9159999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>886.49900000000002</v>
+        <v>840.50699999999995</v>
       </c>
       <c r="B41" s="1">
-        <v>1483.7270000000001</v>
+        <v>1529.8309999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.92</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>884.19299999999998</v>
+        <v>837.88199999999995</v>
       </c>
       <c r="B42" s="1">
-        <v>1391.367</v>
+        <v>1429.56</v>
       </c>
       <c r="C42" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.95</v>
+        <v>-8.07</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>882.43700000000001</v>
+        <v>835.79499999999996</v>
       </c>
       <c r="B43" s="1">
-        <v>1297.1310000000001</v>
+        <v>1329.8489999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.92</v>
+        <v>-6.1</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>881.21299999999997</v>
+        <v>834.43</v>
       </c>
       <c r="B44" s="1">
-        <v>1205.4069999999999</v>
+        <v>1228.8330000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.95</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>880.79399999999998</v>
+        <v>833.51599999999996</v>
       </c>
       <c r="B45" s="1">
-        <v>1112.3900000000001</v>
+        <v>1127.9770000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>880.62300000000005</v>
+        <v>833.38</v>
       </c>
       <c r="B46" s="1">
-        <v>1021.3630000000001</v>
+        <v>1028.1969999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>881.02</v>
+        <v>833.97699999999998</v>
       </c>
       <c r="B47" s="1">
-        <v>929.12</v>
+        <v>927.74199999999996</v>
       </c>
       <c r="C47" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D47" s="1">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>882.29300000000001</v>
+        <v>835</v>
       </c>
       <c r="B48" s="1">
-        <v>838.02099999999996</v>
+        <v>827.38699999999994</v>
       </c>
       <c r="C48" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D48" s="1">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>883.73800000000006</v>
+        <v>836.65599999999995</v>
       </c>
       <c r="B49" s="1">
-        <v>746.38199999999995</v>
+        <v>727.88400000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D49" s="1">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>886.01700000000005</v>
+        <v>838.99199999999996</v>
       </c>
       <c r="B50" s="1">
-        <v>654.02499999999998</v>
+        <v>626.23800000000006</v>
       </c>
       <c r="C50" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D50" s="1">
-        <v>8.08</v>
+        <v>7.93</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>888.94799999999998</v>
+        <v>842</v>
       </c>
       <c r="B51" s="1">
-        <v>560.24699999999996</v>
+        <v>524.08199999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D51" s="1">
-        <v>10.050000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>892.29399999999998</v>
+        <v>845.57399999999996</v>
       </c>
       <c r="B52" s="1">
-        <v>466.09899999999999</v>
+        <v>422.47399999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D52" s="1">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>896.428</v>
+        <v>849.68100000000004</v>
       </c>
       <c r="B53" s="1">
-        <v>370.87</v>
+        <v>319.61399999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D53" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>900.60500000000002</v>
+        <v>854.45699999999999</v>
       </c>
       <c r="B54" s="1">
-        <v>275.11099999999999</v>
+        <v>215.185</v>
       </c>
       <c r="C54" s="1">
-        <v>2700.2</v>
+        <v>2749.8</v>
       </c>
       <c r="D54" s="1">
-        <v>16.079999999999998</v>
+        <v>15.97</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>864.26599999999996</v>
+        <v>817.928</v>
       </c>
       <c r="B55" s="1">
-        <v>1023.289</v>
+        <v>1023.619</v>
       </c>
       <c r="C55" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1177,268 +1177,268 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>880.31899999999996</v>
+        <v>835.62099999999998</v>
       </c>
       <c r="B56" s="1">
-        <v>1778.1949999999999</v>
+        <v>1830.951</v>
       </c>
       <c r="C56" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>876.005</v>
+        <v>831.69100000000003</v>
       </c>
       <c r="B57" s="1">
-        <v>1673.183</v>
+        <v>1735.615</v>
       </c>
       <c r="C57" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>872.67899999999997</v>
+        <v>827.90700000000004</v>
       </c>
       <c r="B58" s="1">
-        <v>1575.6320000000001</v>
+        <v>1629.8989999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.93</v>
+        <v>-12.05</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>870.10199999999998</v>
+        <v>824.53700000000003</v>
       </c>
       <c r="B59" s="1">
-        <v>1482.0530000000001</v>
+        <v>1529.722</v>
       </c>
       <c r="C59" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.93</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>867.61400000000003</v>
+        <v>822.23400000000004</v>
       </c>
       <c r="B60" s="1">
-        <v>1389.088</v>
+        <v>1429.1179999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.95</v>
+        <v>-8.07</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>866.03899999999999</v>
+        <v>820.20100000000002</v>
       </c>
       <c r="B61" s="1">
-        <v>1295.472</v>
+        <v>1329.2349999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.93</v>
+        <v>-6.1</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>865.02</v>
+        <v>818.84699999999998</v>
       </c>
       <c r="B62" s="1">
-        <v>1204.1189999999999</v>
+        <v>1228.6780000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.93</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>864.41600000000005</v>
+        <v>817.99199999999996</v>
       </c>
       <c r="B63" s="1">
-        <v>1112.9549999999999</v>
+        <v>1128.165</v>
       </c>
       <c r="C63" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.95</v>
+        <v>-2.08</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>864.173</v>
+        <v>817.84900000000005</v>
       </c>
       <c r="B64" s="1">
-        <v>1019.616</v>
+        <v>1029.115</v>
       </c>
       <c r="C64" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D64" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>865</v>
+        <v>818.08100000000002</v>
       </c>
       <c r="B65" s="1">
-        <v>929.23500000000001</v>
+        <v>928.42899999999997</v>
       </c>
       <c r="C65" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>865.98699999999997</v>
+        <v>819.10900000000004</v>
       </c>
       <c r="B66" s="1">
-        <v>837.89599999999996</v>
+        <v>827.91399999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D66" s="1">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>867.52099999999996</v>
+        <v>820.96600000000001</v>
       </c>
       <c r="B67" s="1">
-        <v>746.024</v>
+        <v>727.98299999999995</v>
       </c>
       <c r="C67" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D67" s="1">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>869.60199999999998</v>
+        <v>823.04899999999998</v>
       </c>
       <c r="B68" s="1">
-        <v>653.37800000000004</v>
+        <v>626.97500000000002</v>
       </c>
       <c r="C68" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D68" s="1">
-        <v>8.07</v>
+        <v>7.93</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>872.35799999999995</v>
+        <v>825.99400000000003</v>
       </c>
       <c r="B69" s="1">
-        <v>559.99300000000005</v>
+        <v>526.07000000000005</v>
       </c>
       <c r="C69" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D69" s="1">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>875.92499999999995</v>
+        <v>829.68</v>
       </c>
       <c r="B70" s="1">
-        <v>466.41300000000001</v>
+        <v>423.06299999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D70" s="1">
-        <v>12.07</v>
+        <v>11.95</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>879.58600000000001</v>
+        <v>833.53300000000002</v>
       </c>
       <c r="B71" s="1">
-        <v>370.72199999999998</v>
+        <v>320.524</v>
       </c>
       <c r="C71" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D71" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>883.928</v>
+        <v>838.13800000000003</v>
       </c>
       <c r="B72" s="1">
-        <v>275.89299999999997</v>
+        <v>215.90899999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2799.9</v>
+        <v>2849.5</v>
       </c>
       <c r="D72" s="1">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>849.22299999999996</v>
+        <v>803.03800000000001</v>
       </c>
       <c r="B73" s="1">
-        <v>1023.567</v>
+        <v>1023.737</v>
       </c>
       <c r="C73" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1447,256 +1447,256 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>864.55100000000004</v>
+        <v>820.529</v>
       </c>
       <c r="B74" s="1">
-        <v>1777.473</v>
+        <v>1830.306</v>
       </c>
       <c r="C74" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>860.62599999999998</v>
+        <v>816.56399999999996</v>
       </c>
       <c r="B75" s="1">
-        <v>1672.5609999999999</v>
+        <v>1734.7670000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D75" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>857.43100000000004</v>
+        <v>813.03099999999995</v>
       </c>
       <c r="B76" s="1">
-        <v>1575.2629999999999</v>
+        <v>1629.193</v>
       </c>
       <c r="C76" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.93</v>
+        <v>-12.05</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>854.68</v>
+        <v>809.74400000000003</v>
       </c>
       <c r="B77" s="1">
-        <v>1481.7360000000001</v>
+        <v>1528.704</v>
       </c>
       <c r="C77" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D77" s="1">
-        <v>-9.93</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>852.56100000000004</v>
+        <v>807.46</v>
       </c>
       <c r="B78" s="1">
-        <v>1388.454</v>
+        <v>1429.175</v>
       </c>
       <c r="C78" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.93</v>
+        <v>-8.07</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>851</v>
+        <v>805.505</v>
       </c>
       <c r="B79" s="1">
-        <v>1295.7550000000001</v>
+        <v>1329.154</v>
       </c>
       <c r="C79" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>850</v>
+        <v>804.28399999999999</v>
       </c>
       <c r="B80" s="1">
-        <v>1203.5809999999999</v>
+        <v>1228.3689999999999</v>
       </c>
       <c r="C80" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.93</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>849.15</v>
+        <v>803.18200000000002</v>
       </c>
       <c r="B81" s="1">
-        <v>1112.662</v>
+        <v>1128.425</v>
       </c>
       <c r="C81" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.93</v>
+        <v>-2.08</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>849.22199999999998</v>
+        <v>803.05399999999997</v>
       </c>
       <c r="B82" s="1">
-        <v>1020.99</v>
+        <v>1028.432</v>
       </c>
       <c r="C82" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>849.99400000000003</v>
+        <v>803.678</v>
       </c>
       <c r="B83" s="1">
-        <v>929.32500000000005</v>
+        <v>928.73</v>
       </c>
       <c r="C83" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>850.98699999999997</v>
+        <v>804.75599999999997</v>
       </c>
       <c r="B84" s="1">
-        <v>838.12400000000002</v>
+        <v>827.85599999999999</v>
       </c>
       <c r="C84" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D84" s="1">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>852.48400000000004</v>
+        <v>806.22199999999998</v>
       </c>
       <c r="B85" s="1">
-        <v>746.50699999999995</v>
+        <v>728.49099999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D85" s="1">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>854.50300000000004</v>
+        <v>808.53099999999995</v>
       </c>
       <c r="B86" s="1">
-        <v>653.22699999999998</v>
+        <v>627.34400000000005</v>
       </c>
       <c r="C86" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D86" s="1">
-        <v>8.07</v>
+        <v>7.93</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>857.04700000000003</v>
+        <v>811.08</v>
       </c>
       <c r="B87" s="1">
-        <v>560.66399999999999</v>
+        <v>526.86400000000003</v>
       </c>
       <c r="C87" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D87" s="1">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>860.42899999999997</v>
+        <v>814.60900000000004</v>
       </c>
       <c r="B88" s="1">
-        <v>467.00299999999999</v>
+        <v>423.72399999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D88" s="1">
-        <v>12.07</v>
+        <v>11.95</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>864.30499999999995</v>
+        <v>818.56299999999999</v>
       </c>
       <c r="B89" s="1">
-        <v>372.666</v>
+        <v>321.46800000000002</v>
       </c>
       <c r="C89" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D89" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>868.40599999999995</v>
+        <v>822.90099999999995</v>
       </c>
       <c r="B90" s="1">
-        <v>277.83699999999999</v>
+        <v>216.571</v>
       </c>
       <c r="C90" s="1">
-        <v>2899.6</v>
+        <v>2949.2</v>
       </c>
       <c r="D90" s="1">
-        <v>16.07</v>
+        <v>15.97</v>
       </c>
       <c r="E90" s="1"/>
     </row>
